--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/ChangeLoginId.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/ChangeLoginId.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Auto_140920\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Auto_Konnect_Initialization\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Case</t>
   </si>
@@ -59,12 +59,6 @@
     <t>farooq.leo@hotmail.com</t>
   </si>
   <si>
-    <t>When I am verifying Forget login id for Credit Type Customer</t>
-  </si>
-  <si>
-    <t>When I am verifying Forget login id for Debit Type Customer</t>
-  </si>
-  <si>
     <t>mobile_no</t>
   </si>
   <si>
@@ -86,7 +80,40 @@
     <t>03008381621</t>
   </si>
   <si>
-    <t>Success!</t>
+    <t>Forget_Password_NewPass_Value</t>
+  </si>
+  <si>
+    <t>Forget_Password_RepeatNewPass_Value</t>
+  </si>
+  <si>
+    <t>Forget_Password_TranPass_Value</t>
+  </si>
+  <si>
+    <t>Forget_Password_RepeatTranPass_Value</t>
+  </si>
+  <si>
+    <t>pakistan1</t>
+  </si>
+  <si>
+    <t>pakistan2</t>
+  </si>
+  <si>
+    <t>When I am verifying Change login id for Debit Type Customer</t>
+  </si>
+  <si>
+    <t>When I am verifying Change login id for Credit Type Customer</t>
+  </si>
+  <si>
+    <t>new_login_id</t>
+  </si>
+  <si>
+    <t>ALIABBAS1985</t>
+  </si>
+  <si>
+    <t>ALIABBAS1986</t>
+  </si>
+  <si>
+    <t>You have successfully set-up your Login and Transaction Passwords. Kindly use your new password to login.</t>
   </si>
 </sst>
 </file>
@@ -412,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,16 +453,17 @@
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="22.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="12" width="19.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="84.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="22.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,27 +474,42 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -475,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -483,13 +526,28 @@
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -498,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -506,8 +564,23 @@
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/ChangeLoginId.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/ChangeLoginId.xlsx
@@ -41,12 +41,6 @@
     <t>Select I.CUSTOMER_TYPE from dc_customer_info i where I.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
-    <t>3640211897773</t>
-  </si>
-  <si>
-    <t>4028052000002718</t>
-  </si>
-  <si>
     <t>success_message</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>pin</t>
   </si>
   <si>
-    <t>03006943677</t>
-  </si>
-  <si>
     <t>03008381621</t>
   </si>
   <si>
@@ -114,6 +105,15 @@
   </si>
   <si>
     <t>You have successfully set-up your Login and Transaction Passwords. Kindly use your new password to login.</t>
+  </si>
+  <si>
+    <t>3310006363749</t>
+  </si>
+  <si>
+    <t>4028052000002478</t>
+  </si>
+  <si>
+    <t>00000000000</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,113 +474,113 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
